--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3435.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3435.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109979144486451</v>
+        <v>1.443991661071777</v>
       </c>
       <c r="B1">
-        <v>2.554335843632517</v>
+        <v>3.31175971031189</v>
       </c>
       <c r="C1">
-        <v>4.021217478588385</v>
+        <v>4.249300003051758</v>
       </c>
       <c r="D1">
-        <v>3.808895129858135</v>
+        <v>1.971782088279724</v>
       </c>
       <c r="E1">
-        <v>1.269928266174122</v>
+        <v>1.157291650772095</v>
       </c>
     </row>
   </sheetData>
